--- a/biology/Botanique/Pensée_des_champs/Pensée_des_champs.xlsx
+++ b/biology/Botanique/Pensée_des_champs/Pensée_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_des_champs</t>
+          <t>Pensée_des_champs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola arvensis
 La pensée des champs (Viola arvensis) est une espèce de plante herbacée de la famille des Violacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_des_champs</t>
+          <t>Pensée_des_champs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle basse, poilue, ramifiée, aux feuilles oblongues, aux stipules pennatilobés avec un grand lobe terminal.
 Les fleurs sont petites, solitaires, jaune pâle avec le pétale supérieur parfois bleu violet. Les sépales sont au moins aussi longs que les pétales. La pollinisation est assurée par les insectes. Le fruit est une capsule.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_des_champs</t>
+          <t>Pensée_des_champs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmopolite, on la retrouve non seulement en Europe, mais aussi au Québec.
 C'est une commensale des cultures.
-En 2023, une étude de populations du bassin parisien révèle qu'en 30 ans l'espèce a évolué génétiquement vers des tailles de fleurs plus petites, une production de nectar plus faible, résultant en une augmentation de son taux d'autofécondation de 25 % (Acoca-Pidolle et al, 2023, New Phytologidst). Les auteurs considère que la cause de ce changement est le déclin de pollinisateurs. L'espèce semble être en cours d'évolution vers la rupture de son interaction avec les pollinisateurs[1],[2].
+En 2023, une étude de populations du bassin parisien révèle qu'en 30 ans l'espèce a évolué génétiquement vers des tailles de fleurs plus petites, une production de nectar plus faible, résultant en une augmentation de son taux d'autofécondation de 25 % (Acoca-Pidolle et al, 2023, New Phytologidst). Les auteurs considère que la cause de ce changement est le déclin de pollinisateurs. L'espèce semble être en cours d'évolution vers la rupture de son interaction avec les pollinisateurs,.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_des_champs</t>
+          <t>Pensée_des_champs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Viola arvensis Murray subsp. arvensis : annuelles commensales des cultures
